--- a/tables/27-benthic_habitat_quality/hsi.xlsx
+++ b/tables/27-benthic_habitat_quality/hsi.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00101765\AED Dropbox\Sherry Zhai\aed-science\tables\27-benthic_habitat_quality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A4BF646-16BB-4FAA-A8ED-C2FC319A8383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAA144E-D942-440C-A80F-E5F035CD9799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29000" yWindow="260" windowWidth="29580" windowHeight="19980" xr2:uid="{33128E2F-1A9F-4E86-BC68-71FF6E589AF8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{33128E2F-1A9F-4E86-BC68-71FF6E589AF8}"/>
   </bookViews>
   <sheets>
     <sheet name="hsi" sheetId="2" r:id="rId1"/>
-    <sheet name="parameter" sheetId="3" r:id="rId2"/>
+    <sheet name="timewindow" sheetId="4" r:id="rId2"/>
+    <sheet name="config" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">hsi!$A$1:$H$21</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="232">
   <si>
     <t>Description</t>
   </si>
@@ -825,6 +826,51 @@
     0, D\lt 0.01\\ \frac{D-0.01}{0.2-0.01}, 0.01 \le D \lt 0.2 \\
     1,D \gt 0.2
   \end{cases}</t>
+  </si>
+  <si>
+    <t>Life-stage, $j$</t>
+  </si>
+  <si>
+    <t>Turion viability</t>
+  </si>
+  <si>
+    <t>Seed germination/Turion sprouting</t>
+  </si>
+  <si>
+    <t>Adult growth</t>
+  </si>
+  <si>
+    <t>Flowering/Turion formation</t>
+  </si>
+  <si>
+    <t>Start date, $t_{jstart}$</t>
+  </si>
+  <si>
+    <t>Jan 1</t>
+  </si>
+  <si>
+    <t>Apr 1</t>
+  </si>
+  <si>
+    <t>Jun 1</t>
+  </si>
+  <si>
+    <t>Sep 1</t>
+  </si>
+  <si>
+    <t>End date, $t_{jend}$</t>
+  </si>
+  <si>
+    <t>Mar 31</t>
+  </si>
+  <si>
+    <t>Jun 30</t>
+  </si>
+  <si>
+    <t>Sep 30</t>
+  </si>
+  <si>
+    <t>Dec 31</t>
   </si>
 </sst>
 </file>
@@ -872,7 +918,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -906,6 +952,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1222,7 +1269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{286FA020-1387-4C30-A1DB-353027ABF9B9}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1847,11 +1894,77 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329F10FD-27EC-4291-8BB6-58175A9F8AE5}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C2F469-8288-47D6-ACC1-5C6DA8C3FDB4}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tables/27-benthic_habitat_quality/hsi.xlsx
+++ b/tables/27-benthic_habitat_quality/hsi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00101765\AED Dropbox\Sherry Zhai\aed-science\tables\27-benthic_habitat_quality\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00101765\AED Dropbox\Sherry Zhai\Github\aed-science\tables\27-benthic_habitat_quality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAA144E-D942-440C-A80F-E5F035CD9799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C4B48C-A8AD-4381-B5B1-E1A889D7C7E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{33128E2F-1A9F-4E86-BC68-71FF6E589AF8}"/>
+    <workbookView xWindow="28680" yWindow="-5355" windowWidth="38640" windowHeight="21240" xr2:uid="{33128E2F-1A9F-4E86-BC68-71FF6E589AF8}"/>
   </bookViews>
   <sheets>
     <sheet name="hsi" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="234">
   <si>
     <t>Description</t>
   </si>
@@ -131,9 +131,6 @@
   \end{cases}</t>
   </si>
   <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_viability_salinity.png"&gt;</t>
-  </si>
-  <si>
     <t>&lt;=0.1 unsuitable&lt;br&gt;
 0.1-40 optimal&lt;br&gt;
 40-85 suboptimal&lt;br&gt;
@@ -147,9 +144,6 @@
   \end{cases}</t>
   </si>
   <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_germination_salinity.png"&gt;</t>
-  </si>
-  <si>
     <t>HSI function - response curve</t>
   </si>
   <si>
@@ -167,9 +161,6 @@
   \end{cases}</t>
   </si>
   <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_germination_temp.png"&gt;</t>
-  </si>
-  <si>
     <t>&lt;=0.1 unsuitable&lt;br&gt;
 0.1-20 suboptimal&lt;br&gt;
 20-75 optimal&lt;br&gt;
@@ -215,9 +206,6 @@
   \end{cases}</t>
   </si>
   <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_turion_light.png" width="160"/&gt;</t>
-  </si>
-  <si>
     <t>&lt;10 unsuitable&lt;br&gt;
 10-19 suboptimal&lt;br&gt;
 19-124 optimal&lt;br&gt;
@@ -229,13 +217,6 @@
 &gt;= 10 % of time wet: suitable</t>
   </si>
   <si>
-    <t>&lt;4 unsuitable&lt;br&gt;
-4-20 suboptimal&lt;br&gt;
-10-23 optimal&lt;br&gt;
-23-30 suboptimal&lt;br&gt;
-&gt;30 unsuitable</t>
-  </si>
-  <si>
     <t>$\Phi^{adt}_{T}$= 
   \begin{cases}
     0, T\le 4 or T\gt 30\\ \frac{T-4}{10-4}, 4 \lt T \le 10\\1-\frac{T-23}{30-23}, 23 \lt T \le 30 \\
@@ -243,9 +224,6 @@
   \end{cases}</t>
   </si>
   <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_adult_temp.png" width="160"/&gt;</t>
-  </si>
-  <si>
     <t>$\Phi^{adt}_{S}$= 
   \begin{cases}
     0, S\lt 10 or S\gt 230\\ \frac{S-10}{19-10}, 10 \le S \lt 19\\1-\frac{S-124}{230-124}, 124 \lt S \le 230\\
@@ -253,9 +231,6 @@
   \end{cases}</t>
   </si>
   <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_adult_salinity.png" width="160"/&gt;</t>
-  </si>
-  <si>
     <t>$\Phi^{adt}_{L}$= 
   \begin{cases}
     0, L\lt 5\\ \frac{L-5}{36-5}, 5 \le L \lt 36 \\
@@ -263,9 +238,6 @@
   \end{cases}</t>
   </si>
   <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_adult_light.png" width="160"/&gt;</t>
-  </si>
-  <si>
     <t>&lt;=100 optimal&lt;br&gt;
 100-368 suboptimal&lt;br&gt;
 &gt;368 unsuitable</t>
@@ -278,9 +250,6 @@
   \end{cases}</t>
   </si>
   <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_adult_algae.png" width="160"/&gt;</t>
-  </si>
-  <si>
     <t>&lt;12 unsuitable&lt;br&gt;
 12-47 suboptimal&lt;br&gt;
 47-62 optimal&lt;br&gt;
@@ -295,12 +264,6 @@
   \end{cases}</t>
   </si>
   <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_flower_salinity.png" width="160"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_flower_depth.png" width="160"/&gt;</t>
-  </si>
-  <si>
     <t>$\Phi^{flw}_{T}$= 
   \begin{cases}
     0, T\le 4 or T\gt 30\\ \frac{T-4}{10-4}, 4 \lt T \le 10\\1-\frac{T-23}{30-23}, 23 \lt T \le 30 \\
@@ -308,9 +271,6 @@
   \end{cases}</t>
   </si>
   <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_flower_temp.png" width="160"/&gt;</t>
-  </si>
-  <si>
     <t>$\Phi^{flw}_{L}$= 
   \begin{cases}
     0, L\lt 5\\ \frac{L-5}{36-5}, 5 \le L \lt 36 \\
@@ -318,9 +278,6 @@
   \end{cases}</t>
   </si>
   <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_flower_light.png" width="160"/&gt;</t>
-  </si>
-  <si>
     <t>&lt;=100 optimal&lt;br&gt;
 100-184 suboptimal&lt;br&gt;
 &gt;184 unsuitable</t>
@@ -333,9 +290,6 @@
   \end{cases}</t>
   </si>
   <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_flower_algae.png" width="160"/&gt;</t>
-  </si>
-  <si>
     <t>&lt;40 unsuitable&lt;br&gt;
 40-70 suboptimal&lt;br&gt;
 70-160 optimal&lt;br&gt;
@@ -350,9 +304,6 @@
   \end{cases}</t>
   </si>
   <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_turion_salinity.png" width="160"/&gt;</t>
-  </si>
-  <si>
     <t>$\Phi^{tur}_{T}$= 
   \begin{cases}
     0, T\le 4 or T\gt 30\\ \frac{T-4}{10-4}, 4 \lt T \le 10\\1-\frac{T-23}{30-23}, 23 \lt T \le 30 \\
@@ -360,9 +311,6 @@
   \end{cases}</t>
   </si>
   <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_turion_temp.png" width="160"/&gt;</t>
-  </si>
-  <si>
     <t>$\Phi^{tur}_{L}$= 
   \begin{cases}
     0, L\lt 5\\ \frac{L-5}{36-5}, 5 \le L \lt 36 \\
@@ -382,18 +330,6 @@
     <t>$\Phi^{spr}_{D}$</t>
   </si>
   <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_sprout_light.png" width="160"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_sprout_temp.png"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_sprout_salinity.png"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="images/lagoon_habitat/HSI_sprout_depth.png" width="160"/&gt;</t>
-  </si>
-  <si>
     <t>HSI for seed germination, calculated by the HSI funtion based on salinity thresholds (g/L)</t>
   </si>
   <si>
@@ -871,6 +807,74 @@
   </si>
   <si>
     <t>Dec 31</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/27-benthic_habitat_quality/HSI_viability_salinity.png" width="160"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/27-benthic_habitat_quality/HSI_germination_salinity.png" width="160"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/27-benthic_habitat_quality/HSI_germination_temp.png" width="160"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/27-benthic_habitat_quality/HSI_sprout_salinity.png" width="160"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/27-benthic_habitat_quality/HSI_sprout_temp.png" width="160"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/27-benthic_habitat_quality/HSI_sprout_light.png" width="160"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/27-benthic_habitat_quality/HSI_sprout_depth.png" width="160"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/27-benthic_habitat_quality/HSI_adult_salinity.png" width="160"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/27-benthic_habitat_quality/HSI_adult_temp.png" width="160"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/27-benthic_habitat_quality/HSI_adult_light.png" width="160"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/27-benthic_habitat_quality/HSI_adult_algae.png" width="160"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/27-benthic_habitat_quality/HSI_flower_salinity.png" width="160"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/27-benthic_habitat_quality/HSI_flower_temp.png" width="160"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/27-benthic_habitat_quality/HSI_flower_light.png" width="160"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/27-benthic_habitat_quality/HSI_flower_depth.png" width="160"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/27-benthic_habitat_quality/HSI_flower_algae.png" width="160"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/27-benthic_habitat_quality/HSI_turion_salinity.png" width="160"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/27-benthic_habitat_quality/HSI_turion_temp.png" width="160"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/27-benthic_habitat_quality/HSI_turion_light.png" width="160"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="images/27-benthic_habitat_quality/HSI_turion_depth.png" width="160"/&gt;</t>
+  </si>
+  <si>
+    <t>Generation 0 &amp;II:
+&lt; 10 % of time wet: unsuitable
+&gt;= 10 % of time wet: suitable</t>
+  </si>
+  <si>
+    <t>$\Phi^{tur}_{D}$</t>
   </si>
 </sst>
 </file>
@@ -1269,8 +1273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{286FA020-1387-4C30-A1DB-353027ABF9B9}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1281,7 +1285,7 @@
     <col min="4" max="4" width="26.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="64.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="2"/>
     <col min="10" max="10" width="39" style="2" customWidth="1"/>
@@ -1290,10 +1294,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -1302,13 +1306,13 @@
         <v>25</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>21</v>
@@ -1319,10 +1323,10 @@
     </row>
     <row r="2" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
@@ -1334,79 +1338,79 @@
         <v>27</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>28</v>
+        <v>212</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>31</v>
+        <v>213</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>35</v>
+        <v>214</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
@@ -1415,203 +1419,203 @@
         <v>20</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>78</v>
+        <v>216</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="J8" s="1" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>50</v>
+        <v>219</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>48</v>
+        <v>220</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>52</v>
+        <v>221</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
@@ -1620,267 +1624,267 @@
         <v>20</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>55</v>
+        <v>222</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>58</v>
+        <v>223</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>61</v>
+        <v>224</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>63</v>
+        <v>225</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>59</v>
+        <v>226</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>66</v>
+        <v>227</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>69</v>
+        <v>228</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>71</v>
+        <v>229</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>43</v>
+        <v>230</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>16</v>
+        <v>233</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>70</v>
+        <v>232</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>71</v>
+        <v>231</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1905,53 +1909,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="B1" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="C1" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="D1" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="E1" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -1963,7 +1967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C2F469-8288-47D6-ACC1-5C6DA8C3FDB4}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -1980,7 +1984,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>22</v>
@@ -1998,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>24</v>
@@ -2006,10 +2010,10 @@
     </row>
     <row r="2" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>20</v>
@@ -2018,38 +2022,38 @@
         <v>20</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>20</v>
@@ -2059,15 +2063,15 @@
         <v>20</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>20</v>
@@ -2077,107 +2081,107 @@
         <v>20</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>20</v>
@@ -2186,12 +2190,12 @@
         <v>20</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>20</v>
@@ -2200,12 +2204,12 @@
         <v>20</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>20</v>
@@ -2214,15 +2218,15 @@
         <v>20</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>20</v>
@@ -2231,15 +2235,15 @@
         <v>20</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>20</v>
@@ -2248,15 +2252,15 @@
         <v>20</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>20</v>
@@ -2265,38 +2269,38 @@
         <v>20</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>20</v>
@@ -2305,15 +2309,15 @@
         <v>20</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>20</v>
@@ -2322,15 +2326,15 @@
         <v>20</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>20</v>
@@ -2339,38 +2343,38 @@
         <v>20</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>20</v>
@@ -2379,12 +2383,12 @@
         <v>20</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>20</v>
@@ -2393,12 +2397,12 @@
         <v>20</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>20</v>
@@ -2407,15 +2411,15 @@
         <v>20</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>20</v>
@@ -2424,84 +2428,84 @@
         <v>20</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>20</v>
@@ -2512,7 +2516,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>20</v>
@@ -2526,7 +2530,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>20</v>
@@ -2540,53 +2544,53 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>20</v>
@@ -2595,12 +2599,12 @@
         <v>20</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>20</v>
@@ -2609,49 +2613,49 @@
         <v>20</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="6" t="s">
         <v>192</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>20</v>
@@ -2660,7 +2664,7 @@
         <v>20</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/tables/27-benthic_habitat_quality/hsi.xlsx
+++ b/tables/27-benthic_habitat_quality/hsi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00101765\AED Dropbox\Sherry Zhai\Github\aed-science\tables\27-benthic_habitat_quality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C4B48C-A8AD-4381-B5B1-E1A889D7C7E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F36FFFB-ED8A-497A-829C-339D3D474385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5355" windowWidth="38640" windowHeight="21240" xr2:uid="{33128E2F-1A9F-4E86-BC68-71FF6E589AF8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{33128E2F-1A9F-4E86-BC68-71FF6E589AF8}"/>
   </bookViews>
   <sheets>
     <sheet name="hsi" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="233">
   <si>
     <t>Description</t>
   </si>
@@ -187,13 +187,6 @@
 &gt;0.2 optimal</t>
   </si>
   <si>
-    <t>Permanent dry: unsuitable
-&lt;15 days wet (&gt;95% of time): unsuitable &lt;br&gt;
-15-42 days wet (&gt;95% of time): suboptimal*&lt;br&gt;
-&gt;42 days wet (&gt;95% of time): optimal*&lt;br&gt;
-Permanently wet: optimal</t>
-  </si>
-  <si>
     <t>&lt;=5 unsuitable&lt;br&gt;
 5-36 suboptimal&lt;br&gt;
 &gt;=36 optimal</t>
@@ -869,12 +862,14 @@
     <t>&lt;img src="images/27-benthic_habitat_quality/HSI_turion_depth.png" width="160"/&gt;</t>
   </si>
   <si>
-    <t>Generation 0 &amp;II:
-&lt; 10 % of time wet: unsuitable
-&gt;= 10 % of time wet: suitable</t>
-  </si>
-  <si>
     <t>$\Phi^{tur}_{D}$</t>
+  </si>
+  <si>
+    <t>Permanent dry: unsuitable&lt;br&gt;
+&lt;15 days wet (&gt;95% of time): unsuitable &lt;br&gt;
+15-42 days wet (&gt;95% of time): suboptimal*&lt;br&gt;
+&gt;42 days wet (&gt;95% of time): optimal*&lt;br&gt;
+Permanently wet: optimal</t>
   </si>
 </sst>
 </file>
@@ -1274,7 +1269,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="E25" sqref="E25:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1294,10 +1289,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -1306,13 +1301,13 @@
         <v>25</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>21</v>
@@ -1323,10 +1318,10 @@
     </row>
     <row r="2" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
@@ -1338,21 +1333,21 @@
         <v>27</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -1364,21 +1359,21 @@
         <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -1390,27 +1385,27 @@
         <v>32</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>37</v>
+        <v>232</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
@@ -1419,15 +1414,15 @@
         <v>20</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
@@ -1439,21 +1434,21 @@
         <v>34</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>17</v>
@@ -1465,99 +1460,99 @@
         <v>35</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>5</v>
@@ -1566,56 +1561,56 @@
         <v>31</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
@@ -1624,70 +1619,70 @@
         <v>20</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
@@ -1696,128 +1691,128 @@
         <v>31</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="F19" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="F20" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>16</v>
@@ -1826,65 +1821,65 @@
         <v>31</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="J23" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1909,53 +1904,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" t="s">
         <v>197</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>198</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>199</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>200</v>
-      </c>
-      <c r="E1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="E2" s="13" t="s">
         <v>205</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C3" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="13" t="s">
         <v>210</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -1984,7 +1979,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>22</v>
@@ -2002,7 +1997,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>24</v>
@@ -2010,10 +2005,10 @@
     </row>
     <row r="2" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>20</v>
@@ -2022,38 +2017,38 @@
         <v>20</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>113</v>
-      </c>
       <c r="E3" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>20</v>
@@ -2063,15 +2058,15 @@
         <v>20</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>20</v>
@@ -2081,107 +2076,107 @@
         <v>20</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>20</v>
@@ -2190,12 +2185,12 @@
         <v>20</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>20</v>
@@ -2204,12 +2199,12 @@
         <v>20</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>20</v>
@@ -2218,15 +2213,15 @@
         <v>20</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>20</v>
@@ -2235,72 +2230,72 @@
         <v>20</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>185</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F16" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>20</v>
@@ -2309,15 +2304,15 @@
         <v>20</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>20</v>
@@ -2326,15 +2321,15 @@
         <v>20</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>20</v>
@@ -2343,38 +2338,38 @@
         <v>20</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F20" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>20</v>
@@ -2383,12 +2378,12 @@
         <v>20</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>20</v>
@@ -2397,115 +2392,115 @@
         <v>20</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>177</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>179</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F25" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F26" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F27" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>20</v>
@@ -2516,7 +2511,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>20</v>
@@ -2530,7 +2525,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>20</v>
@@ -2544,53 +2539,53 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F31" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F32" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>20</v>
@@ -2599,12 +2594,12 @@
         <v>20</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>20</v>
@@ -2613,35 +2608,35 @@
         <v>20</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B35" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F35" s="6" t="s">
+      <c r="G35" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>20</v>
@@ -2650,12 +2645,12 @@
         <v>20</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>20</v>
@@ -2664,7 +2659,7 @@
         <v>20</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
